--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -196,10 +196,10 @@
     <t>MaxPost</t>
   </si>
   <si>
-    <t>Unlike</t>
-  </si>
-  <si>
     <t>Set maximum number or post to be liked/unliked. Set 0 for infinity.</t>
+  </si>
+  <si>
+    <t>Like</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:Z1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,7 +636,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
